--- a/Guru99Banking/bin/Test Docs/UI_TestCases.xlsx
+++ b/Guru99Banking/bin/Test Docs/UI_TestCases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -133,6 +133,165 @@
   </si>
   <si>
     <t>Fri Apr 01 19:03:57 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 21:55:18 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 21:55:19 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 21:55:20 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 21:58:34 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 21:58:38 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:00:35 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:00:36 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:00:37 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:01:40 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:01:42 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:01:43 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:03:04 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:03:09 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:03:13 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:04:44 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:04:50 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:04:54 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:05:48 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:05:54 IST 2016</t>
+  </si>
+  <si>
+    <t>Fri Apr 01 22:05:58 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:08:24 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:08:29 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:08:30 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:15:11 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:15:15 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:15:16 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:16:51 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:16:56 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:16:57 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:18:58 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:18:59 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:19:00 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:20:41 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:20:45 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 13:20:46 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:26:16 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:26:20 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:26:21 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:58:15 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:58:20 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 14:58:26 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:02:32 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:02:37 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:02:41 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:02:45 IST 2016</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:55:13 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:55:15 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:55:16 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:55:55 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:56:00 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:56:01 IST 2016</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 15:56:02 IST 2016</t>
   </si>
 </sst>
 </file>
@@ -332,7 +491,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -414,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -453,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -494,8 +653,12 @@
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
